--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2012-至今)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2012-至今)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,6 +1832,137 @@
         <v>5334.85</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15050.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3183.45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1706.68</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>7993.46</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30610.42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4585.39</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11737.73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1176.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>550415.87</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2223.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>764.6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1815.92</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2508.6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>20451.24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2310.45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>738.59</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6294.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7235.86</v>
+      </c>
+      <c r="U11" t="n">
+        <v>41524.18</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2452.71</v>
+      </c>
+      <c r="W11" t="n">
+        <v>38414.58</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4062.24</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>71723.34</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>36963.04</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1685.93</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23784.65</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9733.84</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5668.95</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3155.17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70691.66</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>18397.76</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6001.19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5924.48</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1019.57</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>10586.32</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>14938.48</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>13843.35</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>718.34</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5837.56</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>37293.62</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>5603.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
